--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -173,10 +176,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,16 +632,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -700,16 +706,19 @@
       <c r="W2" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -771,16 +780,19 @@
       <c r="W3" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -842,16 +854,19 @@
       <c r="W4" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -913,16 +928,19 @@
       <c r="W5" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -984,16 +1002,19 @@
       <c r="W6" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1055,16 +1076,19 @@
       <c r="W7" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1126,16 +1150,19 @@
       <c r="W8" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1197,16 +1224,19 @@
       <c r="W9" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1268,16 +1298,19 @@
       <c r="W10" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1339,16 +1372,19 @@
       <c r="W11" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1410,16 +1446,19 @@
       <c r="W12" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1481,16 +1520,19 @@
       <c r="W13" t="n">
         <v>0.3500000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1552,16 +1594,19 @@
       <c r="W14" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1623,16 +1668,19 @@
       <c r="W15" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1694,16 +1742,19 @@
       <c r="W16" t="n">
         <v>0.3500000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -1765,16 +1816,19 @@
       <c r="W17" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -1836,16 +1890,19 @@
       <c r="W18" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -1907,16 +1964,19 @@
       <c r="W19" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -1978,16 +2038,19 @@
       <c r="W20" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2049,16 +2112,19 @@
       <c r="W21" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2120,16 +2186,19 @@
       <c r="W22" t="n">
         <v>0.1599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2191,16 +2260,19 @@
       <c r="W23" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2262,16 +2334,19 @@
       <c r="W24" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2333,16 +2408,19 @@
       <c r="W25" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2404,16 +2482,19 @@
       <c r="W26" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2475,16 +2556,19 @@
       <c r="W27" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2546,16 +2630,19 @@
       <c r="W28" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -2617,16 +2704,19 @@
       <c r="W29" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -2688,16 +2778,19 @@
       <c r="W30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.4399999999999999</v>
@@ -2759,49 +2852,52 @@
       <c r="W31" t="n">
         <v>0.3300000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
       </c>
       <c r="E32" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.32</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.33</v>
       </c>
       <c r="I32" t="n">
         <v>0.36</v>
       </c>
       <c r="J32" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="K32" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L32" t="n">
         <v>0.7</v>
       </c>
       <c r="M32" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="O32" t="n">
         <v>0.5600000000000001</v>
@@ -2810,7 +2906,7 @@
         <v>0.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="R32" t="n">
         <v>0.36</v>
@@ -2822,24 +2918,27 @@
         <v>0.38</v>
       </c>
       <c r="U32" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="V32" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="W32" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -2848,28 +2947,28 @@
         <v>0.25</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="G33" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H33" t="n">
         <v>0.36</v>
       </c>
       <c r="I33" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="J33" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K33" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="L33" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="M33" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="N33" t="n">
         <v>0.31</v>
@@ -2887,10 +2986,10 @@
         <v>0.39</v>
       </c>
       <c r="S33" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.37</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.36</v>
       </c>
       <c r="U33" t="n">
         <v>0.33</v>
@@ -2901,22 +3000,25 @@
       <c r="W33" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
       </c>
       <c r="E34" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="F34" t="n">
         <v>0.38</v>
@@ -2925,10 +3027,10 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="J34" t="n">
         <v>0.2</v>
@@ -2937,13 +3039,13 @@
         <v>0.16</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="N34" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="O34" t="n">
         <v>0.08999999999999997</v>
@@ -2952,36 +3054,39 @@
         <v>0.1299999999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="R34" t="n">
         <v>0.25</v>
       </c>
       <c r="S34" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="T34" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="U34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V34" t="n">
         <v>0.23</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.24</v>
       </c>
       <c r="W34" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3008,7 +3113,7 @@
         <v>0.48</v>
       </c>
       <c r="L35" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="M35" t="n">
         <v>0.59</v>
@@ -3029,7 +3134,7 @@
         <v>0.27</v>
       </c>
       <c r="S35" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="T35" t="n">
         <v>0.36</v>
@@ -3041,18 +3146,21 @@
         <v>0.37</v>
       </c>
       <c r="W35" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>0.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3061,7 +3169,7 @@
         <v>0.38</v>
       </c>
       <c r="F36" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G36" t="n">
         <v>0.45</v>
@@ -3070,13 +3178,13 @@
         <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="J36" t="n">
         <v>0.29</v>
       </c>
       <c r="K36" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="L36" t="n">
         <v>0.32</v>
@@ -3100,10 +3208,10 @@
         <v>0.41</v>
       </c>
       <c r="S36" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="T36" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="U36" t="n">
         <v>0.38</v>
@@ -3114,16 +3222,19 @@
       <c r="W36" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3132,7 +3243,7 @@
         <v>0.49</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="G37" t="n">
         <v>0.35</v>
@@ -3141,16 +3252,16 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J37" t="n">
         <v>0.27</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M37" t="n">
         <v>0.1200000000000001</v>
@@ -3174,7 +3285,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="U37" t="n">
         <v>0.26</v>
@@ -3183,18 +3294,21 @@
         <v>0.26</v>
       </c>
       <c r="W37" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>0.29</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3239,7 +3353,7 @@
         <v>0.43</v>
       </c>
       <c r="R38" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="S38" t="n">
         <v>0.43</v>
@@ -3251,21 +3365,24 @@
         <v>0.44</v>
       </c>
       <c r="V38" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="W38" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3310,13 +3427,13 @@
         <v>0.36</v>
       </c>
       <c r="R39" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="S39" t="n">
         <v>0.3</v>
       </c>
       <c r="T39" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="U39" t="n">
         <v>0.31</v>
@@ -3327,16 +3444,19 @@
       <c r="W39" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -3381,33 +3501,36 @@
         <v>0.21</v>
       </c>
       <c r="R40" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="S40" t="n">
         <v>0.27</v>
       </c>
       <c r="T40" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="U40" t="n">
         <v>0.25</v>
       </c>
       <c r="V40" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="W40" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -3469,16 +3592,19 @@
       <c r="W41" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -3540,16 +3666,19 @@
       <c r="W42" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.3400000000000001</v>
@@ -3611,16 +3740,19 @@
       <c r="W43" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -3682,16 +3814,19 @@
       <c r="W44" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -3753,16 +3888,19 @@
       <c r="W45" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0.4299999999999999</v>
@@ -3824,16 +3962,19 @@
       <c r="W46" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -3895,16 +4036,19 @@
       <c r="W47" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -3966,16 +4110,19 @@
       <c r="W48" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4037,16 +4184,19 @@
       <c r="W49" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4108,16 +4258,19 @@
       <c r="W50" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4179,16 +4332,19 @@
       <c r="W51" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -4250,16 +4406,19 @@
       <c r="W52" t="n">
         <v>0.3100000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -4321,16 +4480,19 @@
       <c r="W53" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -4392,16 +4554,19 @@
       <c r="W54" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -4463,16 +4628,19 @@
       <c r="W55" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -4534,16 +4702,19 @@
       <c r="W56" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -4605,16 +4776,19 @@
       <c r="W57" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -4676,10 +4850,13 @@
       <c r="W58" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4701,7 +4878,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4768,13 +4945,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -4836,13 +5016,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -4904,13 +5087,16 @@
       <c r="V3" t="n">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -4972,13 +5158,16 @@
       <c r="V4" t="n">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5040,13 +5229,16 @@
       <c r="V5" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -5108,13 +5300,16 @@
       <c r="V6" t="n">
         <v>753</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -5176,13 +5371,16 @@
       <c r="V7" t="n">
         <v>798</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -5244,13 +5442,16 @@
       <c r="V8" t="n">
         <v>423</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -5312,13 +5513,16 @@
       <c r="V9" t="n">
         <v>405</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -5380,13 +5584,16 @@
       <c r="V10" t="n">
         <v>797</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -5448,81 +5655,87 @@
       <c r="V11" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M12" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N12" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O12" t="n">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="P12" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q12" t="n">
+        <v>566</v>
+      </c>
+      <c r="R12" t="n">
+        <v>669</v>
+      </c>
+      <c r="S12" t="n">
+        <v>689</v>
+      </c>
+      <c r="T12" t="n">
+        <v>643</v>
+      </c>
+      <c r="U12" t="n">
         <v>595</v>
       </c>
-      <c r="R12" t="n">
-        <v>689</v>
-      </c>
-      <c r="S12" t="n">
-        <v>706</v>
-      </c>
-      <c r="T12" t="n">
-        <v>656</v>
-      </c>
-      <c r="U12" t="n">
-        <v>608</v>
-      </c>
       <c r="V12" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>640</v>
+      </c>
+      <c r="W12" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -5534,131 +5747,137 @@
         <v>246</v>
       </c>
       <c r="F13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G13" t="n">
         <v>265</v>
       </c>
       <c r="H13" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I13" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J13" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K13" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M13" t="n">
         <v>281</v>
       </c>
       <c r="N13" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O13" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P13" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q13" t="n">
+        <v>777</v>
+      </c>
+      <c r="R13" t="n">
+        <v>790</v>
+      </c>
+      <c r="S13" t="n">
         <v>753</v>
       </c>
-      <c r="R13" t="n">
-        <v>774</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
+        <v>656</v>
+      </c>
+      <c r="U13" t="n">
+        <v>645</v>
+      </c>
+      <c r="V13" t="n">
         <v>740</v>
       </c>
-      <c r="T13" t="n">
-        <v>646</v>
-      </c>
-      <c r="U13" t="n">
-        <v>635</v>
-      </c>
-      <c r="V13" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
       </c>
       <c r="D14" t="n">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="E14" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F14" t="n">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="G14" t="n">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="H14" t="n">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I14" t="n">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="J14" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K14" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L14" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M14" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="N14" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="O14" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="P14" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="Q14" t="n">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="R14" t="n">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="S14" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="T14" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U14" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="V14" t="n">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>806</v>
+      </c>
+      <c r="W14" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -5720,13 +5939,16 @@
       <c r="V15" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -5788,13 +6010,16 @@
       <c r="V16" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -5856,13 +6081,16 @@
       <c r="V17" t="n">
         <v>1138</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -5924,13 +6152,16 @@
       <c r="V18" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -5992,13 +6223,16 @@
       <c r="V19" t="n">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -6060,10 +6294,13 @@
       <c r="V20" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6086,6 +6323,7 @@
       <c r="T21" t="s"/>
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,10 +179,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,16 +638,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -709,16 +715,19 @@
       <c r="X2" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -783,16 +792,19 @@
       <c r="X3" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -813,19 +825,19 @@
         <v>0.24</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O4" t="n">
         <v>0.16</v>
@@ -857,16 +869,19 @@
       <c r="X4" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -931,16 +946,19 @@
       <c r="X5" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1005,16 +1023,19 @@
       <c r="X6" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1023,7 +1044,7 @@
         <v>0.35</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="G7" t="n">
         <v>0.28</v>
@@ -1035,43 +1056,43 @@
         <v>0.18</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="P7" t="n">
         <v>0.11</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="R7" t="n">
         <v>0.2</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="W7" t="n">
         <v>0.17</v>
@@ -1079,16 +1100,19 @@
       <c r="X7" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1153,16 +1177,19 @@
       <c r="X8" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1227,16 +1254,19 @@
       <c r="X9" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1257,28 +1287,28 @@
         <v>0.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="R10" t="n">
         <v>0.25</v>
@@ -1301,16 +1331,19 @@
       <c r="X10" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1375,16 +1408,19 @@
       <c r="X11" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1449,16 +1485,19 @@
       <c r="X12" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1473,7 +1512,7 @@
         <v>0.38</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
         <v>0.3</v>
@@ -1491,7 +1530,7 @@
         <v>0.14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="O13" t="n">
         <v>0.21</v>
@@ -1512,27 +1551,30 @@
         <v>0.35</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>0.36</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1597,16 +1639,19 @@
       <c r="X14" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1671,16 +1716,19 @@
       <c r="X15" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1689,7 +1737,7 @@
         <v>0.45</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -1698,7 +1746,7 @@
         <v>0.35</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="J16" t="n">
         <v>0.27</v>
@@ -1707,10 +1755,10 @@
         <v>0.25</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="N16" t="n">
         <v>0.2</v>
@@ -1734,27 +1782,30 @@
         <v>0.35</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="X16" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -1819,16 +1870,19 @@
       <c r="X17" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -1893,16 +1947,19 @@
       <c r="X18" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -1911,10 +1968,10 @@
         <v>0.39</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="H19" t="n">
         <v>0.28</v>
@@ -1926,22 +1983,22 @@
         <v>0.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L19" t="n">
         <v>0.12</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="N19" t="n">
         <v>0.13</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="Q19" t="n">
         <v>0.21</v>
@@ -1967,16 +2024,19 @@
       <c r="X19" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2041,16 +2101,19 @@
       <c r="X20" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2115,22 +2178,25 @@
       <c r="X21" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F22" t="n">
         <v>0.33</v>
@@ -2145,19 +2211,19 @@
         <v>0.17</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="O22" t="n">
         <v>0.13</v>
@@ -2184,21 +2250,24 @@
         <v>0.22</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="X22" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2263,16 +2332,19 @@
       <c r="X23" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2337,16 +2409,19 @@
       <c r="X24" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2361,43 +2436,43 @@
         <v>0.22</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J25" t="n">
         <v>0.13</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="P25" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="R25" t="n">
         <v>0.14</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="U25" t="n">
         <v>0.11</v>
@@ -2411,16 +2486,19 @@
       <c r="X25" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2485,16 +2563,19 @@
       <c r="X26" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2559,16 +2640,19 @@
       <c r="X27" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2595,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="L28" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="O28" t="n">
         <v>0.15</v>
@@ -2633,16 +2717,19 @@
       <c r="X28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -2707,16 +2794,19 @@
       <c r="X29" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -2781,22 +2871,25 @@
       <c r="X30" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="F31" t="n">
         <v>0.4</v>
@@ -2823,7 +2916,7 @@
         <v>0.15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="O31" t="n">
         <v>0.22</v>
@@ -2844,27 +2937,30 @@
         <v>0.36</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="X31" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>0.33</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -2929,16 +3025,19 @@
       <c r="X32" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3003,16 +3102,19 @@
       <c r="X33" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3024,10 +3126,10 @@
         <v>0.38</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I34" t="n">
         <v>0.27</v>
@@ -3039,19 +3141,19 @@
         <v>0.16</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O34" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="Q34" t="n">
         <v>0.14</v>
@@ -3077,16 +3179,19 @@
       <c r="X34" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3151,16 +3256,19 @@
       <c r="X35" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3225,16 +3333,19 @@
       <c r="X36" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3243,13 +3354,13 @@
         <v>0.49</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="G37" t="n">
         <v>0.35</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I37" t="n">
         <v>0.27</v>
@@ -3261,13 +3372,13 @@
         <v>0.17</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N37" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O37" t="n">
         <v>0.14</v>
@@ -3279,10 +3390,10 @@
         <v>0.26</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="T37" t="n">
         <v>0.28</v>
@@ -3299,16 +3410,19 @@
       <c r="X37" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3373,16 +3487,19 @@
       <c r="X38" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3447,16 +3564,19 @@
       <c r="X39" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -3480,19 +3600,19 @@
         <v>0.18</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="L40" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="P40" t="n">
         <v>0.17</v>
@@ -3521,16 +3641,19 @@
       <c r="X40" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -3595,16 +3718,19 @@
       <c r="X41" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -3669,19 +3795,22 @@
       <c r="X42" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="E43" t="n">
         <v>0.35</v>
@@ -3699,28 +3828,28 @@
         <v>0.2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="L43" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="N43" t="n">
         <v>0.11</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="R43" t="n">
         <v>0.27</v>
@@ -3743,16 +3872,19 @@
       <c r="X43" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -3817,16 +3949,19 @@
       <c r="X44" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -3891,19 +4026,22 @@
       <c r="X45" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="E46" t="n">
         <v>0.45</v>
@@ -3915,7 +4053,7 @@
         <v>0.36</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
         <v>0.26</v>
@@ -3927,19 +4065,19 @@
         <v>0.15</v>
       </c>
       <c r="L46" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N46" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="Q46" t="n">
         <v>0.23</v>
@@ -3965,16 +4103,19 @@
       <c r="X46" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4039,16 +4180,19 @@
       <c r="X47" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4113,16 +4257,19 @@
       <c r="X48" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4143,25 +4290,25 @@
         <v>0.21</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="N49" t="n">
-        <v>0.09000000000000008</v>
+        <v>0.09</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="Q49" t="n">
         <v>0.2</v>
@@ -4187,16 +4334,19 @@
       <c r="X49" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4261,16 +4411,19 @@
       <c r="X50" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4335,22 +4488,25 @@
       <c r="X51" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="F52" t="n">
         <v>0.38</v>
@@ -4368,31 +4524,31 @@
         <v>0.21</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N52" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="O52" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="P52" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="Q52" t="n">
         <v>0.23</v>
       </c>
       <c r="R52" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="S52" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="T52" t="n">
         <v>0.28</v>
@@ -4404,21 +4560,24 @@
         <v>0.26</v>
       </c>
       <c r="W52" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="X52" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -4483,16 +4642,19 @@
       <c r="X53" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -4557,22 +4719,25 @@
       <c r="X54" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="F55" t="n">
         <v>0.39</v>
@@ -4587,22 +4752,22 @@
         <v>0.26</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="L55" t="n">
-        <v>0.08999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="M55" t="n">
         <v>0.12</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="P55" t="n">
         <v>0.21</v>
@@ -4614,7 +4779,7 @@
         <v>0.3</v>
       </c>
       <c r="S55" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="T55" t="n">
         <v>0.3</v>
@@ -4631,16 +4796,19 @@
       <c r="X55" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -4705,16 +4873,19 @@
       <c r="X56" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -4779,28 +4950,31 @@
       <c r="X57" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="F58" t="n">
         <v>0.38</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="H58" t="n">
         <v>0.24</v>
@@ -4815,19 +4989,19 @@
         <v>0.14</v>
       </c>
       <c r="L58" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.08</v>
       </c>
       <c r="N58" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08</v>
       </c>
       <c r="O58" t="n">
         <v>0.14</v>
       </c>
       <c r="P58" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="Q58" t="n">
         <v>0.21</v>
@@ -4853,10 +5027,13 @@
       <c r="X58" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +5047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4878,7 +5055,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4948,13 +5125,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5019,13 +5199,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5090,13 +5273,16 @@
       <c r="W3" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5161,13 +5347,16 @@
       <c r="W4" t="n">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5232,13 +5421,16 @@
       <c r="W5" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -5303,13 +5495,16 @@
       <c r="W6" t="n">
         <v>581</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -5374,13 +5569,16 @@
       <c r="W7" t="n">
         <v>723</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -5445,13 +5643,16 @@
       <c r="W8" t="n">
         <v>609</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -5516,13 +5717,16 @@
       <c r="W9" t="n">
         <v>388</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -5587,13 +5791,16 @@
       <c r="W10" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -5658,13 +5865,16 @@
       <c r="W11" t="n">
         <v>969</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -5729,13 +5939,16 @@
       <c r="W12" t="n">
         <v>648</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -5800,13 +6013,16 @@
       <c r="W13" t="n">
         <v>711</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -5871,13 +6087,16 @@
       <c r="W14" t="n">
         <v>772</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -5942,13 +6161,16 @@
       <c r="W15" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -6013,13 +6235,16 @@
       <c r="W16" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -6084,13 +6309,16 @@
       <c r="W17" t="n">
         <v>1106</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -6155,13 +6383,16 @@
       <c r="W18" t="n">
         <v>493</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -6226,13 +6457,16 @@
       <c r="W19" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -6297,10 +6531,13 @@
       <c r="W20" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6324,6 +6561,7 @@
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,10 +182,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,16 +644,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -718,16 +724,19 @@
       <c r="Y2" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -795,16 +804,19 @@
       <c r="Y3" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -872,16 +884,19 @@
       <c r="Y4" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -949,16 +964,19 @@
       <c r="Y5" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1026,16 +1044,19 @@
       <c r="Y6" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1103,16 +1124,19 @@
       <c r="Y7" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1180,16 +1204,19 @@
       <c r="Y8" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1257,16 +1284,19 @@
       <c r="Y9" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1334,16 +1364,19 @@
       <c r="Y10" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1411,16 +1444,19 @@
       <c r="Y11" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1488,16 +1524,19 @@
       <c r="Y12" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1565,16 +1604,19 @@
       <c r="Y13" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1642,16 +1684,19 @@
       <c r="Y14" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1719,16 +1764,19 @@
       <c r="Y15" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1796,16 +1844,19 @@
       <c r="Y16" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -1873,16 +1924,19 @@
       <c r="Y17" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -1950,16 +2004,19 @@
       <c r="Y18" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2027,16 +2084,19 @@
       <c r="Y19" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2104,16 +2164,19 @@
       <c r="Y20" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2181,16 +2244,19 @@
       <c r="Y21" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2258,16 +2324,19 @@
       <c r="Y22" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2335,16 +2404,19 @@
       <c r="Y23" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2412,16 +2484,19 @@
       <c r="Y24" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2489,16 +2564,19 @@
       <c r="Y25" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2566,16 +2644,19 @@
       <c r="Y26" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2643,16 +2724,19 @@
       <c r="Y27" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2720,16 +2804,19 @@
       <c r="Y28" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -2797,16 +2884,19 @@
       <c r="Y29" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -2874,16 +2964,19 @@
       <c r="Y30" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -2951,16 +3044,19 @@
       <c r="Y31" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3028,16 +3124,19 @@
       <c r="Y32" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3105,16 +3204,19 @@
       <c r="Y33" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3182,16 +3284,19 @@
       <c r="Y34" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3259,16 +3364,19 @@
       <c r="Y35" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3336,16 +3444,19 @@
       <c r="Y36" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3413,16 +3524,19 @@
       <c r="Y37" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3490,16 +3604,19 @@
       <c r="Y38" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3567,16 +3684,19 @@
       <c r="Y39" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -3644,16 +3764,19 @@
       <c r="Y40" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -3721,16 +3844,19 @@
       <c r="Y41" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -3798,16 +3924,19 @@
       <c r="Y42" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -3875,16 +4004,19 @@
       <c r="Y43" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -3952,16 +4084,19 @@
       <c r="Y44" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4029,16 +4164,19 @@
       <c r="Y45" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4106,16 +4244,19 @@
       <c r="Y46" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4183,16 +4324,19 @@
       <c r="Y47" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4260,16 +4404,19 @@
       <c r="Y48" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4337,16 +4484,19 @@
       <c r="Y49" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4414,16 +4564,19 @@
       <c r="Y50" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4491,16 +4644,19 @@
       <c r="Y51" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -4568,16 +4724,19 @@
       <c r="Y52" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -4645,16 +4804,19 @@
       <c r="Y53" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -4722,16 +4884,19 @@
       <c r="Y54" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -4799,16 +4964,19 @@
       <c r="Y55" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -4876,16 +5044,19 @@
       <c r="Y56" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -4953,16 +5124,19 @@
       <c r="Y57" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -5030,10 +5204,13 @@
       <c r="Y58" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +5224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5055,7 +5232,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5128,13 +5305,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5202,13 +5382,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5276,13 +5459,16 @@
       <c r="X3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5350,13 +5536,16 @@
       <c r="X4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5424,13 +5613,16 @@
       <c r="X5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -5498,13 +5690,16 @@
       <c r="X6" t="n">
         <v>581</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -5572,13 +5767,16 @@
       <c r="X7" t="n">
         <v>703</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -5646,13 +5844,16 @@
       <c r="X8" t="n">
         <v>605</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -5720,13 +5921,16 @@
       <c r="X9" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -5794,13 +5998,16 @@
       <c r="X10" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -5868,13 +6075,16 @@
       <c r="X11" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -5942,13 +6152,16 @@
       <c r="X12" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -6016,13 +6229,16 @@
       <c r="X13" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -6090,13 +6306,16 @@
       <c r="X14" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -6164,13 +6383,16 @@
       <c r="X15" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -6238,13 +6460,16 @@
       <c r="X16" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -6312,13 +6537,16 @@
       <c r="X17" t="n">
         <v>1102</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -6386,13 +6614,16 @@
       <c r="X18" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -6460,13 +6691,16 @@
       <c r="X19" t="n">
         <v>248</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -6534,10 +6768,13 @@
       <c r="X20" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6562,6 +6799,7 @@
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,10 +185,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,16 +650,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -727,16 +733,19 @@
       <c r="Z2" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -807,16 +816,19 @@
       <c r="Z3" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -887,16 +899,19 @@
       <c r="Z4" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -967,16 +982,19 @@
       <c r="Z5" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1047,16 +1065,19 @@
       <c r="Z6" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1127,16 +1148,19 @@
       <c r="Z7" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1207,16 +1231,19 @@
       <c r="Z8" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1287,16 +1314,19 @@
       <c r="Z9" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1367,16 +1397,19 @@
       <c r="Z10" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1447,16 +1480,19 @@
       <c r="Z11" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1527,16 +1563,19 @@
       <c r="Z12" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1607,16 +1646,19 @@
       <c r="Z13" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1687,16 +1729,19 @@
       <c r="Z14" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1767,16 +1812,19 @@
       <c r="Z15" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1847,16 +1895,19 @@
       <c r="Z16" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -1927,16 +1978,19 @@
       <c r="Z17" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2007,16 +2061,19 @@
       <c r="Z18" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2087,16 +2144,19 @@
       <c r="Z19" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2167,16 +2227,19 @@
       <c r="Z20" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2247,16 +2310,19 @@
       <c r="Z21" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2327,16 +2393,19 @@
       <c r="Z22" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2407,16 +2476,19 @@
       <c r="Z23" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2487,16 +2559,19 @@
       <c r="Z24" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2567,16 +2642,19 @@
       <c r="Z25" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2647,16 +2725,19 @@
       <c r="Z26" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2727,16 +2808,19 @@
       <c r="Z27" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2807,16 +2891,19 @@
       <c r="Z28" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -2887,16 +2974,19 @@
       <c r="Z29" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -2967,16 +3057,19 @@
       <c r="Z30" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3047,16 +3140,19 @@
       <c r="Z31" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3127,16 +3223,19 @@
       <c r="Z32" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3207,16 +3306,19 @@
       <c r="Z33" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3287,16 +3389,19 @@
       <c r="Z34" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3367,16 +3472,19 @@
       <c r="Z35" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3447,16 +3555,19 @@
       <c r="Z36" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3527,16 +3638,19 @@
       <c r="Z37" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3607,16 +3721,19 @@
       <c r="Z38" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3687,16 +3804,19 @@
       <c r="Z39" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -3767,16 +3887,19 @@
       <c r="Z40" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -3847,16 +3970,19 @@
       <c r="Z41" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -3927,16 +4053,19 @@
       <c r="Z42" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4007,16 +4136,19 @@
       <c r="Z43" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4087,16 +4219,19 @@
       <c r="Z44" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4167,16 +4302,19 @@
       <c r="Z45" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4247,16 +4385,19 @@
       <c r="Z46" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4327,16 +4468,19 @@
       <c r="Z47" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4407,16 +4551,19 @@
       <c r="Z48" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4487,16 +4634,19 @@
       <c r="Z49" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4567,16 +4717,19 @@
       <c r="Z50" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4647,16 +4800,19 @@
       <c r="Z51" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -4727,16 +4883,19 @@
       <c r="Z52" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -4807,16 +4966,19 @@
       <c r="Z53" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -4887,16 +5049,19 @@
       <c r="Z54" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -4967,16 +5132,19 @@
       <c r="Z55" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -5047,16 +5215,19 @@
       <c r="Z56" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -5127,16 +5298,19 @@
       <c r="Z57" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -5207,10 +5381,13 @@
       <c r="Z58" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +5401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5232,7 +5409,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5308,13 +5485,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5385,13 +5565,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5462,13 +5645,16 @@
       <c r="Y3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5539,13 +5725,16 @@
       <c r="Y4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5616,13 +5805,16 @@
       <c r="Y5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -5693,13 +5885,16 @@
       <c r="Y6" t="n">
         <v>624</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -5770,13 +5965,16 @@
       <c r="Y7" t="n">
         <v>721</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -5847,13 +6045,16 @@
       <c r="Y8" t="n">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -5924,13 +6125,16 @@
       <c r="Y9" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -6001,13 +6205,16 @@
       <c r="Y10" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -6078,13 +6285,16 @@
       <c r="Y11" t="n">
         <v>1058</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -6155,13 +6365,16 @@
       <c r="Y12" t="n">
         <v>691</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -6232,13 +6445,16 @@
       <c r="Y13" t="n">
         <v>727</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -6309,13 +6525,16 @@
       <c r="Y14" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -6386,13 +6605,16 @@
       <c r="Y15" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -6463,13 +6685,16 @@
       <c r="Y16" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -6540,13 +6765,16 @@
       <c r="Y17" t="n">
         <v>1107</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -6617,13 +6845,16 @@
       <c r="Y18" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -6694,13 +6925,16 @@
       <c r="Y19" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -6771,10 +7005,13 @@
       <c r="Y20" t="n">
         <v>281</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6800,6 +7037,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
+      <c r="Z21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,10 +188,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +656,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -736,16 +742,19 @@
       <c r="AA2" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -819,16 +828,19 @@
       <c r="AA3" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -902,16 +914,19 @@
       <c r="AA4" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -985,16 +1000,19 @@
       <c r="AA5" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1068,16 +1086,19 @@
       <c r="AA6" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1151,16 +1172,19 @@
       <c r="AA7" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1234,16 +1258,19 @@
       <c r="AA8" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1317,16 +1344,19 @@
       <c r="AA9" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1400,16 +1430,19 @@
       <c r="AA10" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1483,16 +1516,19 @@
       <c r="AA11" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1566,16 +1602,19 @@
       <c r="AA12" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1649,16 +1688,19 @@
       <c r="AA13" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1732,16 +1774,19 @@
       <c r="AA14" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1815,16 +1860,19 @@
       <c r="AA15" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1898,16 +1946,19 @@
       <c r="AA16" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -1981,16 +2032,19 @@
       <c r="AA17" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2064,16 +2118,19 @@
       <c r="AA18" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2147,16 +2204,19 @@
       <c r="AA19" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2228,18 +2288,21 @@
         <v>0.48</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2313,16 +2376,19 @@
       <c r="AA21" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2394,18 +2460,21 @@
         <v>0.22</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+        <v>0.22</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2479,16 +2548,19 @@
       <c r="AA23" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2562,16 +2634,19 @@
       <c r="AA24" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2645,16 +2720,19 @@
       <c r="AA25" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2728,16 +2806,19 @@
       <c r="AA26" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2811,16 +2892,19 @@
       <c r="AA27" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2894,16 +2978,19 @@
       <c r="AA28" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -2977,16 +3064,19 @@
       <c r="AA29" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -3060,16 +3150,19 @@
       <c r="AA30" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3143,16 +3236,19 @@
       <c r="AA31" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3226,16 +3322,19 @@
       <c r="AA32" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3309,16 +3408,19 @@
       <c r="AA33" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3392,16 +3494,19 @@
       <c r="AA34" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3475,16 +3580,19 @@
       <c r="AA35" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3558,16 +3666,19 @@
       <c r="AA36" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3641,16 +3752,19 @@
       <c r="AA37" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3724,16 +3838,19 @@
       <c r="AA38" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3807,16 +3924,19 @@
       <c r="AA39" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -3890,16 +4010,19 @@
       <c r="AA40" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -3973,16 +4096,19 @@
       <c r="AA41" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -4056,16 +4182,19 @@
       <c r="AA42" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4139,16 +4268,19 @@
       <c r="AA43" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4222,16 +4354,19 @@
       <c r="AA44" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4305,16 +4440,19 @@
       <c r="AA45" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4388,16 +4526,19 @@
       <c r="AA46" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4471,16 +4612,19 @@
       <c r="AA47" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4554,16 +4698,19 @@
       <c r="AA48" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4637,16 +4784,19 @@
       <c r="AA49" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4720,16 +4870,19 @@
       <c r="AA50" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4803,16 +4956,19 @@
       <c r="AA51" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -4886,16 +5042,19 @@
       <c r="AA52" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -4969,16 +5128,19 @@
       <c r="AA53" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -5052,16 +5214,19 @@
       <c r="AA54" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -5135,16 +5300,19 @@
       <c r="AA55" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -5218,16 +5386,19 @@
       <c r="AA56" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -5301,16 +5472,19 @@
       <c r="AA57" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -5384,10 +5558,13 @@
       <c r="AA58" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,7 +5586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5488,13 +5665,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5568,13 +5748,16 @@
       <c r="Z2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5648,13 +5831,16 @@
       <c r="Z3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5728,13 +5914,16 @@
       <c r="Z4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5808,13 +5997,16 @@
       <c r="Z5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -5888,13 +6080,16 @@
       <c r="Z6" t="n">
         <v>740</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -5968,13 +6163,16 @@
       <c r="Z7" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -6046,15 +6244,18 @@
         <v>579</v>
       </c>
       <c r="Z8" t="n">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>435</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -6128,13 +6329,16 @@
       <c r="Z9" t="n">
         <v>345</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -6208,13 +6412,16 @@
       <c r="Z10" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -6288,13 +6495,16 @@
       <c r="Z11" t="n">
         <v>1018</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -6368,13 +6578,16 @@
       <c r="Z12" t="n">
         <v>676</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -6448,13 +6661,16 @@
       <c r="Z13" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -6528,13 +6744,16 @@
       <c r="Z14" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -6608,13 +6827,16 @@
       <c r="Z15" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -6688,13 +6910,16 @@
       <c r="Z16" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -6768,13 +6993,16 @@
       <c r="Z17" t="n">
         <v>1104</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -6848,13 +7076,16 @@
       <c r="Z18" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -6928,13 +7159,16 @@
       <c r="Z19" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -7008,10 +7242,13 @@
       <c r="Z20" t="n">
         <v>277</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7038,6 +7275,7 @@
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
+      <c r="AA21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -188,10 +194,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,16 +665,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -745,16 +757,22 @@
       <c r="AB2" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -831,16 +849,22 @@
       <c r="AB3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -917,16 +941,22 @@
       <c r="AB4" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -1003,16 +1033,22 @@
       <c r="AB5" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1089,16 +1125,22 @@
       <c r="AB6" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1175,16 +1217,22 @@
       <c r="AB7" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1261,16 +1309,22 @@
       <c r="AB8" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1347,16 +1401,22 @@
       <c r="AB9" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1433,16 +1493,22 @@
       <c r="AB10" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1519,16 +1585,22 @@
       <c r="AB11" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1605,16 +1677,22 @@
       <c r="AB12" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1691,16 +1769,22 @@
       <c r="AB13" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1777,16 +1861,22 @@
       <c r="AB14" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1863,16 +1953,22 @@
       <c r="AB15" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -1949,16 +2045,22 @@
       <c r="AB16" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -2035,16 +2137,22 @@
       <c r="AB17" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2121,16 +2229,22 @@
       <c r="AB18" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2207,16 +2321,22 @@
       <c r="AB19" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2293,16 +2413,22 @@
       <c r="AB20" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2379,16 +2505,22 @@
       <c r="AB21" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2465,16 +2597,22 @@
       <c r="AB22" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2551,16 +2689,22 @@
       <c r="AB23" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2637,16 +2781,22 @@
       <c r="AB24" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2723,16 +2873,22 @@
       <c r="AB25" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2809,16 +2965,22 @@
       <c r="AB26" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -2895,16 +3057,22 @@
       <c r="AB27" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -2981,16 +3149,22 @@
       <c r="AB28" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -3067,16 +3241,22 @@
       <c r="AB29" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -3153,16 +3333,22 @@
       <c r="AB30" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3239,16 +3425,22 @@
       <c r="AB31" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3325,16 +3517,22 @@
       <c r="AB32" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3411,16 +3609,22 @@
       <c r="AB33" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3497,16 +3701,22 @@
       <c r="AB34" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3583,16 +3793,22 @@
       <c r="AB35" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3669,16 +3885,22 @@
       <c r="AB36" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3755,16 +3977,22 @@
       <c r="AB37" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -3841,16 +4069,22 @@
       <c r="AB38" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -3927,16 +4161,22 @@
       <c r="AB39" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -4013,16 +4253,22 @@
       <c r="AB40" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -4099,16 +4345,22 @@
       <c r="AB41" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -4185,16 +4437,22 @@
       <c r="AB42" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4271,16 +4529,22 @@
       <c r="AB43" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4357,16 +4621,22 @@
       <c r="AB44" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4443,16 +4713,22 @@
       <c r="AB45" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4529,16 +4805,22 @@
       <c r="AB46" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4615,16 +4897,22 @@
       <c r="AB47" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4701,16 +4989,22 @@
       <c r="AB48" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -4787,16 +5081,22 @@
       <c r="AB49" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -4873,16 +5173,22 @@
       <c r="AB50" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -4959,16 +5265,22 @@
       <c r="AB51" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -5045,16 +5357,22 @@
       <c r="AB52" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -5131,16 +5449,22 @@
       <c r="AB53" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -5217,16 +5541,22 @@
       <c r="AB54" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -5303,16 +5633,22 @@
       <c r="AB55" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -5389,16 +5725,22 @@
       <c r="AB56" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -5475,16 +5817,22 @@
       <c r="AB57" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -5561,10 +5909,16 @@
       <c r="AB58" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5578,7 +5932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5586,7 +5940,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5668,13 +6022,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5751,13 +6111,19 @@
       <c r="AA2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5834,13 +6200,19 @@
       <c r="AA3" t="n">
         <v>488</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5917,13 +6289,19 @@
       <c r="AA4" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6000,13 +6378,19 @@
       <c r="AA5" t="n">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>814</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -6083,13 +6467,19 @@
       <c r="AA6" t="n">
         <v>627</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>586</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -6166,13 +6556,19 @@
       <c r="AA7" t="n">
         <v>715</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>724</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -6249,13 +6645,19 @@
       <c r="AA8" t="n">
         <v>498</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>519</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -6332,13 +6734,19 @@
       <c r="AA9" t="n">
         <v>387</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -6415,13 +6823,19 @@
       <c r="AA10" t="n">
         <v>751</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>750</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -6498,13 +6912,19 @@
       <c r="AA11" t="n">
         <v>923</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>908</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -6581,13 +7001,19 @@
       <c r="AA12" t="n">
         <v>626</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>554</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -6664,13 +7090,19 @@
       <c r="AA13" t="n">
         <v>734</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>690</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -6747,13 +7179,19 @@
       <c r="AA14" t="n">
         <v>701</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>815</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -6830,13 +7268,19 @@
       <c r="AA15" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>997</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -6913,13 +7357,19 @@
       <c r="AA16" t="n">
         <v>1054</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -6996,13 +7446,19 @@
       <c r="AA17" t="n">
         <v>1084</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -7079,13 +7535,19 @@
       <c r="AA18" t="n">
         <v>464</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>462</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -7162,13 +7624,19 @@
       <c r="AA19" t="n">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -7245,10 +7713,16 @@
       <c r="AA20" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>272</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7276,6 +7750,8 @@
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -107,6 +107,9 @@
     <t>4. 5. 2021</t>
   </si>
   <si>
+    <t>25. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -194,10 +197,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,16 +674,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -763,16 +769,19 @@
       <c r="AD2" t="n">
         <v>0.49</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -855,16 +864,19 @@
       <c r="AD3" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -947,16 +959,19 @@
       <c r="AD4" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -1039,16 +1054,19 @@
       <c r="AD5" t="n">
         <v>0.65</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1131,16 +1149,19 @@
       <c r="AD6" t="n">
         <v>0.23</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1223,16 +1244,19 @@
       <c r="AD7" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE7" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1315,16 +1339,19 @@
       <c r="AD8" t="n">
         <v>0.53</v>
       </c>
+      <c r="AE8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1407,16 +1434,19 @@
       <c r="AD9" t="n">
         <v>0.29</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1499,16 +1529,19 @@
       <c r="AD10" t="n">
         <v>0.18</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1591,16 +1624,19 @@
       <c r="AD11" t="n">
         <v>0.36</v>
       </c>
+      <c r="AE11" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1683,16 +1719,19 @@
       <c r="AD12" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE12" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1775,16 +1814,19 @@
       <c r="AD13" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE13" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1865,18 +1907,21 @@
         <v>0.33</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -1959,16 +2004,19 @@
       <c r="AD15" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -2049,18 +2097,21 @@
         <v>0.39</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.37</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -2143,16 +2194,19 @@
       <c r="AD17" t="n">
         <v>0.49</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2235,16 +2289,19 @@
       <c r="AD18" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE18" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2327,16 +2384,19 @@
       <c r="AD19" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2419,16 +2479,19 @@
       <c r="AD20" t="n">
         <v>0.55</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2511,16 +2574,19 @@
       <c r="AD21" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2603,16 +2669,19 @@
       <c r="AD22" t="n">
         <v>0.17</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2695,16 +2764,19 @@
       <c r="AD23" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2787,16 +2859,19 @@
       <c r="AD24" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2879,16 +2954,19 @@
       <c r="AD25" t="n">
         <v>0.11</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -2971,16 +3049,19 @@
       <c r="AD26" t="n">
         <v>0.49</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -3063,16 +3144,19 @@
       <c r="AD27" t="n">
         <v>0.31</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -3155,16 +3239,19 @@
       <c r="AD28" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -3247,16 +3334,19 @@
       <c r="AD29" t="n">
         <v>0.36</v>
       </c>
+      <c r="AE29" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -3339,16 +3429,19 @@
       <c r="AD30" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3431,16 +3524,19 @@
       <c r="AD31" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3523,16 +3619,19 @@
       <c r="AD32" t="n">
         <v>0.51</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3615,16 +3714,19 @@
       <c r="AD33" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3707,16 +3809,19 @@
       <c r="AD34" t="n">
         <v>0.19</v>
       </c>
+      <c r="AE34" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3799,16 +3904,19 @@
       <c r="AD35" t="n">
         <v>0.41</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -3891,16 +3999,19 @@
       <c r="AD36" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -3983,16 +4094,19 @@
       <c r="AD37" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -4075,16 +4189,19 @@
       <c r="AD38" t="n">
         <v>0.53</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -4167,16 +4284,19 @@
       <c r="AD39" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -4259,16 +4379,19 @@
       <c r="AD40" t="n">
         <v>0.2</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -4351,16 +4474,19 @@
       <c r="AD41" t="n">
         <v>0.5</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -4443,16 +4569,19 @@
       <c r="AD42" t="n">
         <v>0.28</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4535,16 +4664,19 @@
       <c r="AD43" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4627,16 +4759,19 @@
       <c r="AD44" t="n">
         <v>0.48</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4719,16 +4854,19 @@
       <c r="AD45" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4811,16 +4949,19 @@
       <c r="AD46" t="n">
         <v>0.22</v>
       </c>
+      <c r="AE46" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -4903,16 +5044,19 @@
       <c r="AD47" t="n">
         <v>0.53</v>
       </c>
+      <c r="AE47" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -4995,16 +5139,19 @@
       <c r="AD48" t="n">
         <v>0.26</v>
       </c>
+      <c r="AE48" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -5087,16 +5234,19 @@
       <c r="AD49" t="n">
         <v>0.21</v>
       </c>
+      <c r="AE49" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -5179,16 +5329,19 @@
       <c r="AD50" t="n">
         <v>0.45</v>
       </c>
+      <c r="AE50" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -5271,16 +5424,19 @@
       <c r="AD51" t="n">
         <v>0.3</v>
       </c>
+      <c r="AE51" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -5363,16 +5519,19 @@
       <c r="AD52" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE52" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -5453,18 +5612,21 @@
         <v>0.42</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.49</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -5547,16 +5709,19 @@
       <c r="AD54" t="n">
         <v>0.34</v>
       </c>
+      <c r="AE54" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -5637,18 +5802,21 @@
         <v>0.27</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -5731,16 +5899,19 @@
       <c r="AD56" t="n">
         <v>0.44</v>
       </c>
+      <c r="AE56" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -5821,18 +5992,21 @@
         <v>0.31</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.34</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -5913,12 +6087,15 @@
         <v>0.26</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5932,7 +6109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5940,7 +6117,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6028,13 +6205,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6115,15 +6295,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6204,15 +6387,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6293,15 +6479,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6382,15 +6571,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -6471,15 +6663,18 @@
         <v>586</v>
       </c>
       <c r="AC6" t="n">
-        <v>453</v>
+        <v>451</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -6560,15 +6755,18 @@
         <v>724</v>
       </c>
       <c r="AC7" t="n">
-        <v>691</v>
+        <v>689</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -6646,18 +6844,21 @@
         <v>498</v>
       </c>
       <c r="AB8" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AC8" t="n">
-        <v>676</v>
+        <v>678</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -6740,13 +6941,16 @@
       <c r="AC9" t="n">
         <v>461</v>
       </c>
+      <c r="AD9" t="n">
+        <v>512</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -6829,13 +7033,16 @@
       <c r="AC10" t="n">
         <v>831</v>
       </c>
+      <c r="AD10" t="n">
+        <v>844</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -6916,15 +7123,18 @@
         <v>908</v>
       </c>
       <c r="AC11" t="n">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -7005,15 +7215,18 @@
         <v>554</v>
       </c>
       <c r="AC12" t="n">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -7094,15 +7307,18 @@
         <v>690</v>
       </c>
       <c r="AC13" t="n">
-        <v>592</v>
+        <v>591</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -7185,13 +7401,16 @@
       <c r="AC14" t="n">
         <v>945</v>
       </c>
+      <c r="AD14" t="n">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -7272,15 +7491,18 @@
         <v>997</v>
       </c>
       <c r="AC15" t="n">
-        <v>981</v>
+        <v>980</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>956</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -7361,15 +7583,18 @@
         <v>1062</v>
       </c>
       <c r="AC16" t="n">
-        <v>1051</v>
+        <v>1049</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -7450,15 +7675,18 @@
         <v>1084</v>
       </c>
       <c r="AC17" t="n">
-        <v>1059</v>
+        <v>1058</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1029</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -7539,15 +7767,18 @@
         <v>462</v>
       </c>
       <c r="AC18" t="n">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -7630,13 +7861,16 @@
       <c r="AC19" t="n">
         <v>238</v>
       </c>
+      <c r="AD19" t="n">
+        <v>230</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -7717,12 +7951,15 @@
         <v>272</v>
       </c>
       <c r="AC20" t="n">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7752,6 +7989,7 @@
       <c r="AA21" t="s"/>
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
+      <c r="AD21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -110,6 +110,9 @@
     <t>25. 5. 2021</t>
   </si>
   <si>
+    <t>22. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -197,10 +200,10 @@
     <t>Praha</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,16 +680,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -772,16 +778,19 @@
       <c r="AE2" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -867,16 +876,19 @@
       <c r="AE3" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -962,16 +974,19 @@
       <c r="AE4" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -1057,16 +1072,19 @@
       <c r="AE5" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1152,16 +1170,19 @@
       <c r="AE6" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1247,16 +1268,19 @@
       <c r="AE7" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1342,16 +1366,19 @@
       <c r="AE8" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1437,16 +1464,19 @@
       <c r="AE9" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1532,16 +1562,19 @@
       <c r="AE10" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1627,16 +1660,19 @@
       <c r="AE11" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1722,16 +1758,19 @@
       <c r="AE12" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1817,16 +1856,19 @@
       <c r="AE13" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1912,16 +1954,19 @@
       <c r="AE14" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -2007,16 +2052,19 @@
       <c r="AE15" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -2102,16 +2150,19 @@
       <c r="AE16" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -2197,16 +2248,19 @@
       <c r="AE17" t="n">
         <v>0.47</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2292,16 +2346,19 @@
       <c r="AE18" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2387,16 +2444,19 @@
       <c r="AE19" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2482,16 +2542,19 @@
       <c r="AE20" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2577,16 +2640,19 @@
       <c r="AE21" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2672,16 +2738,19 @@
       <c r="AE22" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2767,16 +2836,19 @@
       <c r="AE23" t="n">
         <v>0.7</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2862,16 +2934,19 @@
       <c r="AE24" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -2957,16 +3032,19 @@
       <c r="AE25" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -3052,16 +3130,19 @@
       <c r="AE26" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -3147,16 +3228,19 @@
       <c r="AE27" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -3242,16 +3326,19 @@
       <c r="AE28" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -3337,16 +3424,19 @@
       <c r="AE29" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -3432,16 +3522,19 @@
       <c r="AE30" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3527,16 +3620,19 @@
       <c r="AE31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3622,16 +3718,19 @@
       <c r="AE32" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3717,16 +3816,19 @@
       <c r="AE33" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3812,16 +3914,19 @@
       <c r="AE34" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -3907,16 +4012,19 @@
       <c r="AE35" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -4002,16 +4110,19 @@
       <c r="AE36" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -4097,16 +4208,19 @@
       <c r="AE37" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -4192,16 +4306,19 @@
       <c r="AE38" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -4287,16 +4404,19 @@
       <c r="AE39" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -4382,16 +4502,19 @@
       <c r="AE40" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -4477,16 +4600,19 @@
       <c r="AE41" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -4572,16 +4698,19 @@
       <c r="AE42" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4667,16 +4796,19 @@
       <c r="AE43" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4762,16 +4894,19 @@
       <c r="AE44" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4857,16 +4992,19 @@
       <c r="AE45" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -4952,16 +5090,19 @@
       <c r="AE46" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -5047,16 +5188,19 @@
       <c r="AE47" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -5142,16 +5286,19 @@
       <c r="AE48" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -5237,16 +5384,19 @@
       <c r="AE49" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -5332,16 +5482,19 @@
       <c r="AE50" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -5427,16 +5580,19 @@
       <c r="AE51" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -5522,16 +5678,19 @@
       <c r="AE52" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -5617,16 +5776,19 @@
       <c r="AE53" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -5712,16 +5874,19 @@
       <c r="AE54" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -5807,16 +5972,19 @@
       <c r="AE55" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -5902,16 +6070,19 @@
       <c r="AE56" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -5997,16 +6168,19 @@
       <c r="AE57" t="n">
         <v>0.34</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -6092,10 +6266,13 @@
       <c r="AE58" t="n">
         <v>0.2</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6109,7 +6286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6117,7 +6294,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6208,13 +6385,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6300,13 +6480,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6392,13 +6575,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6484,13 +6670,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6576,13 +6765,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -6668,13 +6860,16 @@
       <c r="AD6" t="n">
         <v>373</v>
       </c>
+      <c r="AE6" t="n">
+        <v>304</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -6760,13 +6955,16 @@
       <c r="AD7" t="n">
         <v>643</v>
       </c>
+      <c r="AE7" t="n">
+        <v>541</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -6852,13 +7050,16 @@
       <c r="AD8" t="n">
         <v>719</v>
       </c>
+      <c r="AE8" t="n">
+        <v>844</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -6944,13 +7145,16 @@
       <c r="AD9" t="n">
         <v>512</v>
       </c>
+      <c r="AE9" t="n">
+        <v>573</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -7036,13 +7240,16 @@
       <c r="AD10" t="n">
         <v>844</v>
       </c>
+      <c r="AE10" t="n">
+        <v>803</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -7128,13 +7335,16 @@
       <c r="AD11" t="n">
         <v>619</v>
       </c>
+      <c r="AE11" t="n">
+        <v>528</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -7220,13 +7430,16 @@
       <c r="AD12" t="n">
         <v>443</v>
       </c>
+      <c r="AE12" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -7312,13 +7525,16 @@
       <c r="AD13" t="n">
         <v>528</v>
       </c>
+      <c r="AE13" t="n">
+        <v>420</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -7404,13 +7620,16 @@
       <c r="AD14" t="n">
         <v>1004</v>
       </c>
+      <c r="AE14" t="n">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -7496,13 +7715,16 @@
       <c r="AD15" t="n">
         <v>956</v>
       </c>
+      <c r="AE15" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -7588,13 +7810,16 @@
       <c r="AD16" t="n">
         <v>1019</v>
       </c>
+      <c r="AE16" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -7680,13 +7905,16 @@
       <c r="AD17" t="n">
         <v>1029</v>
       </c>
+      <c r="AE17" t="n">
+        <v>983</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -7772,13 +8000,16 @@
       <c r="AD18" t="n">
         <v>456</v>
       </c>
+      <c r="AE18" t="n">
+        <v>447</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -7864,13 +8095,16 @@
       <c r="AD19" t="n">
         <v>230</v>
       </c>
+      <c r="AE19" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -7956,10 +8190,13 @@
       <c r="AD20" t="n">
         <v>260</v>
       </c>
+      <c r="AE20" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7990,6 +8227,7 @@
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
       <c r="AD21" t="s"/>
+      <c r="AE21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,200 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Menšina aktivit (0–6)</t>
-  </si>
-  <si>
-    <t>Většina aktivit (7–10)</t>
-  </si>
-  <si>
-    <t>Všechny nebo téměř všechny aktivity (11–13)</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Počet kontaktů (uplynulý týden)</t>
-  </si>
-  <si>
-    <t>0–3</t>
-  </si>
-  <si>
-    <t>4–10</t>
-  </si>
-  <si>
-    <t>11 a více</t>
-  </si>
-  <si>
-    <t>Obavy ohledně koronaviru</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -267,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -578,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.16</v>
@@ -781,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.59</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -879,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.39</v>
@@ -977,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.17</v>
@@ -1075,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.75</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1173,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.33</v>
@@ -1271,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.17</v>
@@ -1369,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.64</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -1467,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.37</v>
@@ -1565,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0.15</v>
@@ -1663,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0.42</v>
@@ -1761,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.43</v>
@@ -1859,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.16</v>
@@ -1957,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.41</v>
@@ -2055,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0.43</v>
@@ -2153,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.13</v>
@@ -2251,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.47</v>
@@ -2349,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.28</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.4</v>
@@ -2447,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.16</v>
@@ -2545,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.47</v>
@@ -2643,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.37</v>
@@ -2741,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -2839,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.75</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.46</v>
@@ -2937,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.29</v>
@@ -3035,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.16</v>
@@ -3133,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.47</v>
@@ -3231,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.37</v>
@@ -3329,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.12</v>
@@ -3427,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.44</v>
@@ -3525,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.44</v>
@@ -3623,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0.15</v>
@@ -3721,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.18</v>
@@ -3819,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.67</v>
@@ -3917,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.15</v>
@@ -4015,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0.45</v>
@@ -4113,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.4</v>
@@ -4211,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.16</v>
@@ -4309,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.45</v>
@@ -4407,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.39</v>
@@ -4505,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
@@ -4603,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.47</v>
@@ -4701,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.23</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.34</v>
@@ -4799,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.13</v>
@@ -4897,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.44</v>
@@ -4995,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.27</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.43</v>
@@ -5093,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.17</v>
@@ -5191,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.62</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.45</v>
@@ -5289,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.38</v>
@@ -5387,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.17</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.15</v>
@@ -5485,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.46</v>
@@ -5583,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.39</v>
@@ -5681,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.15</v>
@@ -5779,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.47</v>
@@ -5877,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.38</v>
@@ -5975,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Menšina aktivit (0–6)</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.15</v>
@@ -6073,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.54</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Většina aktivit (7–10)</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.45</v>
@@ -6171,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Všechny nebo téměř všechny aktivity (11–13)</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.4</v>
@@ -6269,14 +6721,19 @@
       <c r="AF58" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>61</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6286,7 +6743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,107 +6751,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6483,13 +7011,20 @@
       <c r="AE2" t="n">
         <v>1904</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6578,13 +7113,20 @@
       <c r="AE3" t="n">
         <v>459</v>
       </c>
+      <c r="AF3" t="n">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6673,13 +7215,20 @@
       <c r="AE4" t="n">
         <v>699</v>
       </c>
+      <c r="AF4" t="n">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6768,13 +7317,20 @@
       <c r="AE5" t="n">
         <v>746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0–3</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>632</v>
@@ -6863,13 +7419,20 @@
       <c r="AE6" t="n">
         <v>304</v>
       </c>
+      <c r="AF6" t="n">
+        <v>281</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4–10</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>861</v>
@@ -6958,13 +7521,20 @@
       <c r="AE7" t="n">
         <v>541</v>
       </c>
+      <c r="AF7" t="n">
+        <v>516</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Počet kontaktů (uplynulý týden)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11 a více</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>911</v>
@@ -7053,13 +7623,20 @@
       <c r="AE8" t="n">
         <v>844</v>
       </c>
+      <c r="AF8" t="n">
+        <v>729</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klidný</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>665</v>
@@ -7148,13 +7725,20 @@
       <c r="AE9" t="n">
         <v>573</v>
       </c>
+      <c r="AF9" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Částečné starosti</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>885</v>
@@ -7243,13 +7827,20 @@
       <c r="AE10" t="n">
         <v>803</v>
       </c>
+      <c r="AF10" t="n">
+        <v>767</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Obavy ohledně koronaviru</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Velké starosti</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>1551</v>
@@ -7338,13 +7929,20 @@
       <c r="AE11" t="n">
         <v>528</v>
       </c>
+      <c r="AF11" t="n">
+        <v>556</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -7433,13 +8031,20 @@
       <c r="AE12" t="n">
         <v>377</v>
       </c>
+      <c r="AF12" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>102</v>
@@ -7528,13 +8133,20 @@
       <c r="AE13" t="n">
         <v>420</v>
       </c>
+      <c r="AF13" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>2988</v>
@@ -7623,13 +8235,20 @@
       <c r="AE14" t="n">
         <v>1107</v>
       </c>
+      <c r="AF14" t="n">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1514</v>
@@ -7718,13 +8337,20 @@
       <c r="AE15" t="n">
         <v>937</v>
       </c>
+      <c r="AF15" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1587</v>
@@ -7813,13 +8439,20 @@
       <c r="AE16" t="n">
         <v>967</v>
       </c>
+      <c r="AF16" t="n">
+        <v>919</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1726</v>
@@ -7908,13 +8541,20 @@
       <c r="AE17" t="n">
         <v>983</v>
       </c>
+      <c r="AF17" t="n">
+        <v>923</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>667</v>
@@ -8003,13 +8643,20 @@
       <c r="AE18" t="n">
         <v>447</v>
       </c>
+      <c r="AF18" t="n">
+        <v>417</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>333</v>
@@ -8098,13 +8745,20 @@
       <c r="AE19" t="n">
         <v>223</v>
       </c>
+      <c r="AF19" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>375</v>
@@ -8193,43 +8847,49 @@
       <c r="AE20" t="n">
         <v>251</v>
       </c>
+      <c r="AF20" t="n">
+        <v>234</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="s"/>
-      <c r="AE21" t="s"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.6</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.73</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.66</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.73</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.7</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.6</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.62</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.53</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,11 +6897,14 @@
       <c r="AG58" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6912,6 +7088,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7014,6 +7195,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7116,6 +7300,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7218,6 +7405,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7320,6 +7510,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7422,6 +7615,9 @@
       <c r="AF6" t="n">
         <v>281</v>
       </c>
+      <c r="AG6" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7524,6 +7720,9 @@
       <c r="AF7" t="n">
         <v>516</v>
       </c>
+      <c r="AG7" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7626,6 +7825,9 @@
       <c r="AF8" t="n">
         <v>729</v>
       </c>
+      <c r="AG8" t="n">
+        <v>764</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7728,6 +7930,9 @@
       <c r="AF9" t="n">
         <v>459</v>
       </c>
+      <c r="AG9" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7830,6 +8035,9 @@
       <c r="AF10" t="n">
         <v>767</v>
       </c>
+      <c r="AG10" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7932,6 +8140,9 @@
       <c r="AF11" t="n">
         <v>556</v>
       </c>
+      <c r="AG11" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8034,6 +8245,9 @@
       <c r="AF12" t="n">
         <v>327</v>
       </c>
+      <c r="AG12" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8136,6 +8350,9 @@
       <c r="AF13" t="n">
         <v>349</v>
       </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8238,6 +8455,9 @@
       <c r="AF14" t="n">
         <v>1106</v>
       </c>
+      <c r="AG14" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8340,6 +8560,9 @@
       <c r="AF15" t="n">
         <v>863</v>
       </c>
+      <c r="AG15" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8442,6 +8665,9 @@
       <c r="AF16" t="n">
         <v>919</v>
       </c>
+      <c r="AG16" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8544,6 +8770,9 @@
       <c r="AF17" t="n">
         <v>923</v>
       </c>
+      <c r="AG17" t="n">
+        <v>988</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8646,6 +8875,9 @@
       <c r="AF18" t="n">
         <v>417</v>
       </c>
+      <c r="AG18" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8748,6 +8980,9 @@
       <c r="AF19" t="n">
         <v>208</v>
       </c>
+      <c r="AG19" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8850,11 +9085,14 @@
       <c r="AF20" t="n">
         <v>234</v>
       </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -8888,6 +9126,7 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.67</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.67</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.44</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.17</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,11 +7073,14 @@
       <c r="AH58" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -6919,7 +7095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7093,6 +7269,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7198,6 +7379,9 @@
       <c r="AG2" t="n">
         <v>1901</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7303,6 +7487,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7408,6 +7595,9 @@
       <c r="AG4" t="n">
         <v>709</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7513,6 +7703,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7618,6 +7811,9 @@
       <c r="AG6" t="n">
         <v>263</v>
       </c>
+      <c r="AH6" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7723,6 +7919,9 @@
       <c r="AG7" t="n">
         <v>611</v>
       </c>
+      <c r="AH7" t="n">
+        <v>483</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7828,6 +8027,9 @@
       <c r="AG8" t="n">
         <v>764</v>
       </c>
+      <c r="AH8" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7933,6 +8135,9 @@
       <c r="AG9" t="n">
         <v>522</v>
       </c>
+      <c r="AH9" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8038,6 +8243,9 @@
       <c r="AG10" t="n">
         <v>847</v>
       </c>
+      <c r="AH10" t="n">
+        <v>801</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8143,6 +8351,9 @@
       <c r="AG11" t="n">
         <v>529</v>
       </c>
+      <c r="AH11" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8248,6 +8459,9 @@
       <c r="AG12" t="n">
         <v>314</v>
       </c>
+      <c r="AH12" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8353,6 +8567,9 @@
       <c r="AG13" t="n">
         <v>350</v>
       </c>
+      <c r="AH13" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8458,6 +8675,9 @@
       <c r="AG14" t="n">
         <v>1237</v>
       </c>
+      <c r="AH14" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8563,6 +8783,9 @@
       <c r="AG15" t="n">
         <v>937</v>
       </c>
+      <c r="AH15" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8668,6 +8891,9 @@
       <c r="AG16" t="n">
         <v>964</v>
       </c>
+      <c r="AH16" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8773,6 +8999,9 @@
       <c r="AG17" t="n">
         <v>988</v>
       </c>
+      <c r="AH17" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8878,6 +9107,9 @@
       <c r="AG18" t="n">
         <v>442</v>
       </c>
+      <c r="AH18" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8983,6 +9215,9 @@
       <c r="AG19" t="n">
         <v>220</v>
       </c>
+      <c r="AH19" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9088,11 +9323,14 @@
       <c r="AG20" t="n">
         <v>251</v>
       </c>
+      <c r="AH20" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -9127,6 +9365,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.77</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.75</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.64</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,11 +7249,14 @@
       <c r="AI58" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7274,6 +7450,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7382,6 +7563,9 @@
       <c r="AH2" t="n">
         <v>1855</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7490,6 +7674,9 @@
       <c r="AH3" t="n">
         <v>456</v>
       </c>
+      <c r="AI3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7598,6 +7785,9 @@
       <c r="AH4" t="n">
         <v>678</v>
       </c>
+      <c r="AI4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7706,6 +7896,9 @@
       <c r="AH5" t="n">
         <v>721</v>
       </c>
+      <c r="AI5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7814,6 +8007,9 @@
       <c r="AH6" t="n">
         <v>238</v>
       </c>
+      <c r="AI6" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7922,6 +8118,9 @@
       <c r="AH7" t="n">
         <v>483</v>
       </c>
+      <c r="AI7" t="n">
+        <v>490</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8030,6 +8229,9 @@
       <c r="AH8" t="n">
         <v>862</v>
       </c>
+      <c r="AI8" t="n">
+        <v>812</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8138,6 +8340,9 @@
       <c r="AH9" t="n">
         <v>539</v>
       </c>
+      <c r="AI9" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8246,6 +8451,9 @@
       <c r="AH10" t="n">
         <v>801</v>
       </c>
+      <c r="AI10" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8354,6 +8562,9 @@
       <c r="AH11" t="n">
         <v>515</v>
       </c>
+      <c r="AI11" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8462,6 +8673,9 @@
       <c r="AH12" t="n">
         <v>317</v>
       </c>
+      <c r="AI12" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8570,6 +8784,9 @@
       <c r="AH13" t="n">
         <v>325</v>
       </c>
+      <c r="AI13" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8678,6 +8895,9 @@
       <c r="AH14" t="n">
         <v>1213</v>
       </c>
+      <c r="AI14" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8786,6 +9006,9 @@
       <c r="AH15" t="n">
         <v>897</v>
       </c>
+      <c r="AI15" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8894,6 +9117,9 @@
       <c r="AH16" t="n">
         <v>958</v>
       </c>
+      <c r="AI16" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9002,6 +9228,9 @@
       <c r="AH17" t="n">
         <v>965</v>
       </c>
+      <c r="AI17" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9110,6 +9339,9 @@
       <c r="AH18" t="n">
         <v>429</v>
       </c>
+      <c r="AI18" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9218,6 +9450,9 @@
       <c r="AH19" t="n">
         <v>216</v>
       </c>
+      <c r="AI19" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9326,11 +9561,14 @@
       <c r="AH20" t="n">
         <v>245</v>
       </c>
+      <c r="AI20" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -9366,6 +9604,7 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.61</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.72</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1470,6 +1493,9 @@
       <c r="AM8" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1535,6 +1561,9 @@
       <c r="AM9" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1600,6 +1629,9 @@
       <c r="AM10" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1725,6 +1757,9 @@
       <c r="AM11" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1850,6 +1885,9 @@
       <c r="AM12" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1975,6 +2013,9 @@
       <c r="AM13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2040,6 +2081,9 @@
       <c r="AM14" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2105,6 +2149,9 @@
       <c r="AM15" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2170,6 +2217,9 @@
       <c r="AM16" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2295,6 +2345,9 @@
       <c r="AM17" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2420,6 +2473,9 @@
       <c r="AM18" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2545,6 +2601,9 @@
       <c r="AM19" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2610,6 +2669,9 @@
       <c r="AM20" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2675,6 +2737,9 @@
       <c r="AM21" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2740,6 +2805,9 @@
       <c r="AM22" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2865,6 +2933,9 @@
       <c r="AM23" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2990,6 +3061,9 @@
       <c r="AM24" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3115,6 +3189,9 @@
       <c r="AM25" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3240,6 +3317,9 @@
       <c r="AM26" t="n">
         <v>0.67</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3365,6 +3445,9 @@
       <c r="AM27" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3490,6 +3573,9 @@
       <c r="AM28" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3615,6 +3701,9 @@
       <c r="AM29" t="n">
         <v>0.44</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3740,6 +3829,9 @@
       <c r="AM30" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3865,6 +3957,9 @@
       <c r="AM31" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3990,6 +4085,9 @@
       <c r="AM32" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4115,6 +4213,9 @@
       <c r="AM33" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4240,6 +4341,9 @@
       <c r="AM34" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4365,6 +4469,9 @@
       <c r="AM35" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4490,6 +4597,9 @@
       <c r="AM36" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4615,6 +4725,9 @@
       <c r="AM37" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4740,6 +4853,9 @@
       <c r="AM38" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4865,6 +4981,9 @@
       <c r="AM39" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4990,6 +5109,9 @@
       <c r="AM40" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5115,6 +5237,9 @@
       <c r="AM41" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5240,6 +5365,9 @@
       <c r="AM42" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5365,6 +5493,9 @@
       <c r="AM43" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5490,6 +5621,9 @@
       <c r="AM44" t="n">
         <v>0.62</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5615,6 +5749,9 @@
       <c r="AM45" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5740,6 +5877,9 @@
       <c r="AM46" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5865,6 +6005,9 @@
       <c r="AM47" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5990,6 +6133,9 @@
       <c r="AM48" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6115,6 +6261,9 @@
       <c r="AM49" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6240,6 +6389,9 @@
       <c r="AM50" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6365,6 +6517,9 @@
       <c r="AM51" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6490,6 +6645,9 @@
       <c r="AM52" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6615,6 +6773,9 @@
       <c r="AM53" t="n">
         <v>0.53</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6740,6 +6901,9 @@
       <c r="AM54" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6865,6 +7029,9 @@
       <c r="AM55" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6990,6 +7157,9 @@
       <c r="AM56" t="n">
         <v>0.63</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7115,6 +7285,9 @@
       <c r="AM57" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7240,6 +7413,9 @@
       <c r="AM58" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7365,6 +7541,9 @@
       <c r="AM59" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7490,6 +7669,9 @@
       <c r="AM60" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7615,6 +7797,9 @@
       <c r="AM61" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7740,6 +7925,9 @@
       <c r="AM62" t="n">
         <v>0.57</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7865,6 +8053,9 @@
       <c r="AM63" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7990,6 +8181,9 @@
       <c r="AM64" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8115,6 +8309,9 @@
       <c r="AM65" t="n">
         <v>0.64</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8240,6 +8437,9 @@
       <c r="AM66" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8365,6 +8565,9 @@
       <c r="AM67" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8490,6 +8693,9 @@
       <c r="AM68" t="n">
         <v>0.58</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8615,6 +8821,9 @@
       <c r="AM69" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8740,6 +8949,9 @@
       <c r="AM70" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8865,6 +9077,9 @@
       <c r="AM71" t="n">
         <v>0.6</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8990,6 +9205,9 @@
       <c r="AM72" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9115,6 +9333,9 @@
       <c r="AM73" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9240,6 +9461,9 @@
       <c r="AM74" t="n">
         <v>0.57</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9365,6 +9589,9 @@
       <c r="AM75" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9490,11 +9717,14 @@
       <c r="AM76" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9708,6 +9938,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9828,6 +10063,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9947,6 +10185,9 @@
       </c>
       <c r="AL3" t="n">
         <v>406</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -10028,6 +10269,9 @@
       <c r="AL4" t="n">
         <v>1361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10147,6 +10391,9 @@
       </c>
       <c r="AL5" t="n">
         <v>298</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -10228,6 +10475,9 @@
       <c r="AL6" t="n">
         <v>774</v>
       </c>
+      <c r="AM6" t="n">
+        <v>797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10347,6 +10597,9 @@
       </c>
       <c r="AL7" t="n">
         <v>108</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -10428,6 +10681,9 @@
       <c r="AL8" t="n">
         <v>587</v>
       </c>
+      <c r="AM8" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10548,6 +10804,9 @@
       <c r="AL9" t="n">
         <v>442</v>
       </c>
+      <c r="AM9" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10668,6 +10927,9 @@
       <c r="AL10" t="n">
         <v>647</v>
       </c>
+      <c r="AM10" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10788,6 +11050,9 @@
       <c r="AL11" t="n">
         <v>678</v>
       </c>
+      <c r="AM11" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10908,6 +11173,9 @@
       <c r="AL12" t="n">
         <v>277</v>
       </c>
+      <c r="AM12" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11028,6 +11296,9 @@
       <c r="AL13" t="n">
         <v>562</v>
       </c>
+      <c r="AM13" t="n">
+        <v>524</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11148,6 +11419,9 @@
       <c r="AL14" t="n">
         <v>687</v>
       </c>
+      <c r="AM14" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11268,6 +11542,9 @@
       <c r="AL15" t="n">
         <v>422</v>
       </c>
+      <c r="AM15" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11388,6 +11665,9 @@
       <c r="AL16" t="n">
         <v>723</v>
       </c>
+      <c r="AM16" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11508,6 +11788,9 @@
       <c r="AL17" t="n">
         <v>622</v>
       </c>
+      <c r="AM17" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11628,6 +11911,9 @@
       <c r="AL18" t="n">
         <v>579</v>
       </c>
+      <c r="AM18" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11748,6 +12034,9 @@
       <c r="AL19" t="n">
         <v>447</v>
       </c>
+      <c r="AM19" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11868,6 +12157,9 @@
       <c r="AL20" t="n">
         <v>741</v>
       </c>
+      <c r="AM20" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11988,6 +12280,9 @@
       <c r="AL21" t="n">
         <v>862</v>
       </c>
+      <c r="AM21" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12108,6 +12403,9 @@
       <c r="AL22" t="n">
         <v>905</v>
       </c>
+      <c r="AM22" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12228,6 +12526,9 @@
       <c r="AL23" t="n">
         <v>916</v>
       </c>
+      <c r="AM23" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12348,6 +12649,9 @@
       <c r="AL24" t="n">
         <v>413</v>
       </c>
+      <c r="AM24" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12468,6 +12772,9 @@
       <c r="AL25" t="n">
         <v>205</v>
       </c>
+      <c r="AM25" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12588,11 +12895,14 @@
       <c r="AL26" t="n">
         <v>233</v>
       </c>
+      <c r="AM26" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -12632,6 +12942,7 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_08_pocet_aktivit.xlsx
+++ b/ZBP_08_pocet_aktivit.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -788,6 +793,9 @@
       <c r="AN2" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -914,7 +922,10 @@
         <v>0.24</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -1042,7 +1053,10 @@
         <v>0.15</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.71</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1298,7 +1315,10 @@
         <v>0.15</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1426,7 +1446,10 @@
         <v>0.13</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -1494,7 +1517,10 @@
         <v>0.58</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
@@ -1564,6 +1590,9 @@
       <c r="AN9" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1630,7 +1659,10 @@
         <v>0.16</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
@@ -1760,6 +1792,9 @@
       <c r="AN11" t="n">
         <v>0.76</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1888,6 +1923,9 @@
       <c r="AN12" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2016,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2084,6 +2125,9 @@
       <c r="AN14" t="n">
         <v>0.66</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2150,7 +2194,10 @@
         <v>0.21</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
@@ -2218,7 +2265,10 @@
         <v>0.09</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
@@ -2346,7 +2396,10 @@
         <v>0.62</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2474,7 +2527,10 @@
         <v>0.17</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="19">
@@ -2602,7 +2658,10 @@
         <v>0.21</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="20">
@@ -2670,7 +2729,10 @@
         <v>0.42</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="21">
@@ -2740,6 +2802,9 @@
       <c r="AN21" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2806,7 +2871,10 @@
         <v>0.24</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
@@ -2934,7 +3002,10 @@
         <v>0.78</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3064,6 +3135,9 @@
       <c r="AN24" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3190,7 +3264,10 @@
         <v>0.09</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3318,7 +3395,10 @@
         <v>0.67</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3446,7 +3526,10 @@
         <v>0.23</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="28">
@@ -3576,6 +3659,9 @@
       <c r="AN28" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3704,6 +3790,9 @@
       <c r="AN29" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3832,6 +3921,9 @@
       <c r="AN30" t="n">
         <v>0.34</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3960,6 +4052,9 @@
       <c r="AN31" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO31" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4088,6 +4183,9 @@
       <c r="AN32" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4216,6 +4314,9 @@
       <c r="AN33" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4344,6 +4445,9 @@
       <c r="AN34" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO34" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4470,7 +4574,10 @@
         <v>0.6</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -4600,6 +4707,9 @@
       <c r="AN36" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4726,7 +4836,10 @@
         <v>0.14</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
@@ -4856,6 +4969,9 @@
       <c r="AN38" t="n">
         <v>0.67</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4984,6 +5100,9 @@
       <c r="AN39" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5112,6 +5231,9 @@
       <c r="AN40" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5238,7 +5360,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="42">
@@ -5368,6 +5493,9 @@
       <c r="AN42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5494,7 +5622,10 @@
         <v>0.05</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="44">
@@ -5622,7 +5753,10 @@
         <v>0.62</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="45">
@@ -5752,6 +5886,9 @@
       <c r="AN45" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5878,7 +6015,10 @@
         <v>0.14</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="47">
@@ -6006,6 +6146,9 @@
         <v>0.47</v>
       </c>
       <c r="AN47" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AO47" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -6136,6 +6279,9 @@
       <c r="AN48" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO48" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6262,7 +6408,10 @@
         <v>0.24</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="50">
@@ -6390,7 +6539,10 @@
         <v>0.65</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="51">
@@ -6520,6 +6672,9 @@
       <c r="AN51" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO51" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6646,7 +6801,10 @@
         <v>0.11</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
@@ -6776,6 +6934,9 @@
       <c r="AN53" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6904,6 +7065,9 @@
       <c r="AN54" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7032,6 +7196,9 @@
       <c r="AN55" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO55" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7160,6 +7327,9 @@
       <c r="AN56" t="n">
         <v>0.59</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7288,6 +7458,9 @@
       <c r="AN57" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO57" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7416,6 +7589,9 @@
       <c r="AN58" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO58" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7542,7 +7718,10 @@
         <v>0.65</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="60">
@@ -7670,6 +7849,9 @@
         <v>0.22</v>
       </c>
       <c r="AN60" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO60" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -7800,6 +7982,9 @@
       <c r="AN61" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7928,6 +8113,9 @@
       <c r="AN62" t="n">
         <v>0.55</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8054,7 +8242,10 @@
         <v>0.25</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="64">
@@ -8182,7 +8373,10 @@
         <v>0.18</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="65">
@@ -8310,7 +8504,10 @@
         <v>0.64</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="66">
@@ -8440,6 +8637,9 @@
       <c r="AN66" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO66" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8566,7 +8766,10 @@
         <v>0.14</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="68">
@@ -8694,7 +8897,10 @@
         <v>0.58</v>
       </c>
       <c r="AN68" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="69">
@@ -8824,6 +9030,9 @@
       <c r="AN69" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO69" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8950,7 +9159,10 @@
         <v>0.17</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="71">
@@ -9080,6 +9292,9 @@
       <c r="AN71" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO71" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9206,7 +9421,10 @@
         <v>0.26</v>
       </c>
       <c r="AN72" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="73">
@@ -9334,6 +9552,9 @@
         <v>0.14</v>
       </c>
       <c r="AN73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO73" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -9464,6 +9685,9 @@
       <c r="AN74" t="n">
         <v>0.55</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9592,6 +9816,9 @@
       <c r="AN75" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9720,11 +9947,14 @@
       <c r="AN76" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO76" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Počet protektivních aktivit, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9943,6 +10173,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10064,7 +10299,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -10187,7 +10425,10 @@
         <v>406</v>
       </c>
       <c r="AM3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -10270,7 +10511,10 @@
         <v>1361</v>
       </c>
       <c r="AM4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -10393,7 +10637,10 @@
         <v>298</v>
       </c>
       <c r="AM5" t="n">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -10476,7 +10723,10 @@
         <v>774</v>
       </c>
       <c r="AM6" t="n">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="7">
@@ -10599,7 +10849,10 @@
         <v>108</v>
       </c>
       <c r="AM7" t="n">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -10682,7 +10935,10 @@
         <v>587</v>
       </c>
       <c r="AM8" t="n">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="9">
@@ -10805,7 +11061,10 @@
         <v>442</v>
       </c>
       <c r="AM9" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="10">
@@ -10928,7 +11187,10 @@
         <v>647</v>
       </c>
       <c r="AM10" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="11">
@@ -11051,7 +11313,10 @@
         <v>678</v>
       </c>
       <c r="AM11" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="12">
@@ -11176,6 +11441,9 @@
       <c r="AM12" t="n">
         <v>334</v>
       </c>
+      <c r="AN12" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11297,7 +11565,10 @@
         <v>562</v>
       </c>
       <c r="AM13" t="n">
-        <v>524</v>
+        <v>546</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="14">
@@ -11420,7 +11691,10 @@
         <v>687</v>
       </c>
       <c r="AM14" t="n">
-        <v>725</v>
+        <v>734</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>703</v>
       </c>
     </row>
     <row r="15">
@@ -11543,7 +11817,10 @@
         <v>422</v>
       </c>
       <c r="AM15" t="n">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="16">
@@ -11666,7 +11943,10 @@
         <v>723</v>
       </c>
       <c r="AM16" t="n">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>778</v>
       </c>
     </row>
     <row r="17">
@@ -11789,7 +12069,10 @@
         <v>622</v>
       </c>
       <c r="AM17" t="n">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="18">
@@ -11912,7 +12195,10 @@
         <v>579</v>
       </c>
       <c r="AM18" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="19">
@@ -12035,7 +12321,10 @@
         <v>447</v>
       </c>
       <c r="AM19" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="20">
@@ -12158,7 +12447,10 @@
         <v>741</v>
       </c>
       <c r="AM20" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="21">
@@ -12281,7 +12573,10 @@
         <v>862</v>
       </c>
       <c r="AM21" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="22">
@@ -12404,7 +12699,10 @@
         <v>905</v>
       </c>
       <c r="AM22" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="23">
@@ -12527,7 +12825,10 @@
         <v>916</v>
       </c>
       <c r="AM23" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="24">
@@ -12650,6 +12951,9 @@
         <v>413</v>
       </c>
       <c r="AM24" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN24" t="n">
         <v>413</v>
       </c>
     </row>
@@ -12773,7 +13077,10 @@
         <v>205</v>
       </c>
       <c r="AM25" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -12896,13 +13203,16 @@
         <v>233</v>
       </c>
       <c r="AM26" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Počet protektivních aktivit, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -12943,6 +13253,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
